--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Ryk</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.94900850539887</v>
+        <v>9.182053333333334</v>
       </c>
       <c r="N2">
-        <v>8.94900850539887</v>
+        <v>27.54616</v>
       </c>
       <c r="O2">
-        <v>0.1668854637451504</v>
+        <v>0.1632474062119586</v>
       </c>
       <c r="P2">
-        <v>0.1668854637451504</v>
+        <v>0.1844076677824049</v>
       </c>
       <c r="Q2">
-        <v>2.102975693654792</v>
+        <v>0.1789551587822222</v>
       </c>
       <c r="R2">
-        <v>2.102975693654792</v>
+        <v>1.61059642904</v>
       </c>
       <c r="S2">
-        <v>0.1668854637451504</v>
+        <v>0.01158413789171251</v>
       </c>
       <c r="T2">
-        <v>0.1668854637451504</v>
+        <v>0.01308568326719302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.3381797835123</v>
+        <v>27.25159233333333</v>
       </c>
       <c r="N3">
-        <v>25.3381797835123</v>
+        <v>81.75477699999999</v>
       </c>
       <c r="O3">
-        <v>0.4725187020526775</v>
+        <v>0.4845051103561108</v>
       </c>
       <c r="P3">
-        <v>0.4725187020526775</v>
+        <v>0.5473070568326256</v>
       </c>
       <c r="Q3">
-        <v>5.954355298023776</v>
+        <v>0.5311244507125554</v>
       </c>
       <c r="R3">
-        <v>5.954355298023776</v>
+        <v>4.780120056413</v>
       </c>
       <c r="S3">
-        <v>0.4725187020526775</v>
+        <v>0.03438078520106636</v>
       </c>
       <c r="T3">
-        <v>0.4725187020526775</v>
+        <v>0.03883725054243484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.125698469632312</v>
+        <v>0.3190983333333333</v>
       </c>
       <c r="N4">
-        <v>0.125698469632312</v>
+        <v>0.957295</v>
       </c>
       <c r="O4">
-        <v>0.002344086206196885</v>
+        <v>0.00567323814751954</v>
       </c>
       <c r="P4">
-        <v>0.002344086206196885</v>
+        <v>0.006408607890528383</v>
       </c>
       <c r="Q4">
-        <v>0.02953856018874965</v>
+        <v>0.006219120150555555</v>
       </c>
       <c r="R4">
-        <v>0.02953856018874965</v>
+        <v>0.055972081355</v>
       </c>
       <c r="S4">
-        <v>0.002344086206196885</v>
+        <v>0.0004025765218472166</v>
       </c>
       <c r="T4">
-        <v>0.002344086206196885</v>
+        <v>0.0004547588180446039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +723,421 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H5">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>19.2107680797523</v>
+        <v>0.1312043333333333</v>
       </c>
       <c r="N5">
-        <v>19.2107680797523</v>
+        <v>0.393613</v>
       </c>
       <c r="O5">
-        <v>0.3582517479959753</v>
+        <v>0.00233267726976492</v>
       </c>
       <c r="P5">
-        <v>0.3582517479959753</v>
+        <v>0.002635040794754541</v>
       </c>
       <c r="Q5">
-        <v>4.51444182936976</v>
+        <v>0.002557128721888889</v>
       </c>
       <c r="R5">
-        <v>4.51444182936976</v>
+        <v>0.023014158497</v>
       </c>
       <c r="S5">
-        <v>0.3582517479959753</v>
+        <v>0.000165528235803852</v>
       </c>
       <c r="T5">
-        <v>0.3582517479959753</v>
+        <v>0.000186984140361112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01948966666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.058469</v>
+      </c>
+      <c r="I6">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="J6">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.362295</v>
+      </c>
+      <c r="N6">
+        <v>38.72459</v>
+      </c>
+      <c r="O6">
+        <v>0.344241568014646</v>
+      </c>
+      <c r="P6">
+        <v>0.2592416266996866</v>
+      </c>
+      <c r="Q6">
+        <v>0.3773646754516666</v>
+      </c>
+      <c r="R6">
+        <v>2.26418805271</v>
+      </c>
+      <c r="S6">
+        <v>0.02442759664287316</v>
+      </c>
+      <c r="T6">
+        <v>0.01839594772526952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.182053333333334</v>
+      </c>
+      <c r="N7">
+        <v>27.54616</v>
+      </c>
+      <c r="O7">
+        <v>0.1632474062119586</v>
+      </c>
+      <c r="P7">
+        <v>0.1844076677824049</v>
+      </c>
+      <c r="Q7">
+        <v>2.3429386388</v>
+      </c>
+      <c r="R7">
+        <v>21.0864477492</v>
+      </c>
+      <c r="S7">
+        <v>0.151663268320246</v>
+      </c>
+      <c r="T7">
+        <v>0.1713219845152119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.25159233333333</v>
+      </c>
+      <c r="N8">
+        <v>81.75477699999999</v>
+      </c>
+      <c r="O8">
+        <v>0.4845051103561108</v>
+      </c>
+      <c r="P8">
+        <v>0.5473070568326256</v>
+      </c>
+      <c r="Q8">
+        <v>6.953652557734999</v>
+      </c>
+      <c r="R8">
+        <v>62.58287301961499</v>
+      </c>
+      <c r="S8">
+        <v>0.4501243251550444</v>
+      </c>
+      <c r="T8">
+        <v>0.5084698062901908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3190983333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.957295</v>
+      </c>
+      <c r="O9">
+        <v>0.00567323814751954</v>
+      </c>
+      <c r="P9">
+        <v>0.006408607890528383</v>
+      </c>
+      <c r="Q9">
+        <v>0.08142272622499999</v>
+      </c>
+      <c r="R9">
+        <v>0.732804536025</v>
+      </c>
+      <c r="S9">
+        <v>0.005270661625672322</v>
+      </c>
+      <c r="T9">
+        <v>0.005953849072483779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.255165</v>
+      </c>
+      <c r="H10">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J10">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1312043333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.393613</v>
+      </c>
+      <c r="O10">
+        <v>0.00233267726976492</v>
+      </c>
+      <c r="P10">
+        <v>0.002635040794754541</v>
+      </c>
+      <c r="Q10">
+        <v>0.033478753715</v>
+      </c>
+      <c r="R10">
+        <v>0.3013087834349999</v>
+      </c>
+      <c r="S10">
+        <v>0.002167149033961068</v>
+      </c>
+      <c r="T10">
+        <v>0.002448056654393429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255165</v>
+      </c>
+      <c r="H11">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J11">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.362295</v>
+      </c>
+      <c r="N11">
+        <v>38.72459</v>
+      </c>
+      <c r="O11">
+        <v>0.344241568014646</v>
+      </c>
+      <c r="P11">
+        <v>0.2592416266996866</v>
+      </c>
+      <c r="Q11">
+        <v>4.940580003675</v>
+      </c>
+      <c r="R11">
+        <v>29.64348002205</v>
+      </c>
+      <c r="S11">
+        <v>0.3198139713717728</v>
+      </c>
+      <c r="T11">
+        <v>0.2408456789744171</v>
       </c>
     </row>
   </sheetData>
